--- a/biology/Médecine/Arcade_veineuse_plantaire/Arcade_veineuse_plantaire.xlsx
+++ b/biology/Médecine/Arcade_veineuse_plantaire/Arcade_veineuse_plantaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arcade veineuse plantaire est une veine du membre inférieur située dans la plante du pied qui contribue au réseau veineux plantaire (ou semelle veineuse de Lejars).
 Elle forme un arc concave en arrière au niveau de la racine des orteils, satellite de l'arcade plantaire artériel. 
